--- a/request/분석 확장 기초 코드.xlsx
+++ b/request/분석 확장 기초 코드.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis\request\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis_v2\request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373DA31B-BC43-4C70-ABD3-4A4257070AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC596323-128E-442D-B919-0842562128DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5781574B-9207-40DF-ADC9-D6E57D8A3C90}"/>
+    <workbookView xWindow="14355" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5781574B-9207-40DF-ADC9-D6E57D8A3C90}"/>
   </bookViews>
   <sheets>
     <sheet name="제품 분석 확장코드" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1178">
   <si>
     <t>브랜드(4)</t>
   </si>
@@ -3786,13 +3786,133 @@
   </si>
   <si>
     <t>오프라인_직영점</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채널</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장형태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드롭다운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD8DEE9"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3850,6 +3970,26 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD8DEE9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD8DEE9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD8DEE9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3932,7 +4072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3994,6 +4134,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4414,14 +4557,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A828F3-E26D-4EAF-9A39-087443177CD2}">
   <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R10:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -8397,10 +8547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF6124-63AF-4762-9328-07BCF3077937}">
-  <dimension ref="A1:H1227"/>
+  <dimension ref="A1:L1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:XFD310"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8414,7 +8564,7 @@
     <col min="8" max="8" width="9.58203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>611</v>
       </c>
@@ -8439,8 +8589,11 @@
       <c r="H1" s="2" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L1" s="21" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>618</v>
       </c>
@@ -8466,7 +8619,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>623</v>
       </c>
@@ -8492,7 +8645,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -8515,7 +8668,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>646</v>
       </c>
@@ -8538,7 +8691,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>653</v>
       </c>
@@ -8561,7 +8714,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>691</v>
       </c>
@@ -8584,7 +8737,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>768</v>
       </c>
@@ -8607,7 +8760,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>780</v>
       </c>
@@ -8627,7 +8780,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>957</v>
       </c>
@@ -8647,7 +8800,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>691</v>
@@ -8665,7 +8818,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>695</v>
       </c>
@@ -8682,7 +8835,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>743</v>
       </c>
@@ -8699,7 +8852,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>753</v>
       </c>
@@ -8716,7 +8869,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>759</v>
       </c>
@@ -8733,7 +8886,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>768</v>
       </c>
@@ -15116,24 +15269,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A11 D2:D463">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>$L2="종료"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B22">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$L2="종료"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C46">
-    <cfRule type="expression" dxfId="8" priority="102">
+    <cfRule type="expression" dxfId="9" priority="102">
       <formula>$L2="종료"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C58">
-    <cfRule type="expression" dxfId="7" priority="104">
+    <cfRule type="expression" dxfId="8" priority="104">
       <formula>$L48="종료"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D463 A2:A11">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>$L2="종료"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
